--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -19,30 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>Core Fit Studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 31st </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Revenue</t>
-  </si>
-  <si>
-    <t>As of</t>
   </si>
   <si>
     <t>Expenses</t>
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As of </t>
-  </si>
-  <si>
-    <t>August 1st</t>
   </si>
   <si>
     <t>Example of Temporary Accounts</t>
@@ -53,15 +38,21 @@
   <si>
     <t>Cash</t>
   </si>
+  <si>
+    <t>As of July 31st</t>
+  </si>
+  <si>
+    <t>As of August 1st</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,22 +86,58 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,8 +145,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,14 +192,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -162,6 +252,14 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -173,6 +271,14 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,113 +608,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F19"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="0.83203125" customWidth="1"/>
-    <col min="5" max="5" width="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="0.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="2:10">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="4" spans="2:10" ht="43" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:10" ht="43" customHeight="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" ht="43" customHeight="1">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="9" customHeight="1">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="16">
+        <v>30000</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:10" ht="43" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6">
+        <v>22500</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="43" customHeight="1" thickBot="1">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
+        <f>E6-E7</f>
+        <v>7500</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18">
+        <f>G6-G7</f>
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="11" spans="2:10" ht="43" customHeight="1">
+      <c r="B11" s="9"/>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" ht="43" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>22500</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
+      <c r="H12" s="8"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" ht="43" customHeight="1" thickBot="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
-        <f>D10-D11</f>
-        <v>7500</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18">
         <v>100000</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F13" s="17"/>
+      <c r="G13" s="18">
         <v>100000</v>
       </c>
+      <c r="H13" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,11 +53,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,14 +85,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,36 +206,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -283,6 +285,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -608,139 +618,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J13"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="4" width="0.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.5" customWidth="1"/>
+    <col min="2" max="2" width="43.625" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="2:10" ht="43" customHeight="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="11" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:10" ht="43" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="12" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" ht="43" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="E5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16">
+      <c r="C6" s="8">
         <v>30000</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16">
+      <c r="D6" s="8">
         <v>1E-4</v>
       </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:10" ht="43" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6">
+      <c r="C7" s="4">
         <v>22500</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6">
+      <c r="D7" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="43" customHeight="1" thickBot="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18">
-        <f>E6-E7</f>
+      <c r="C8" s="10">
+        <f>C6-C7</f>
         <v>7500</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18">
-        <f>G6-G7</f>
+      <c r="D8" s="10">
+        <f>D6-D7</f>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="11" spans="2:10" ht="43" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="14" t="s">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:10" ht="43" customHeight="1">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="13" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" ht="43" customHeight="1" thickBot="1">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="E11" s="5"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18">
+      <c r="C12" s="10">
         <v>100000</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18">
+      <c r="D12" s="10">
         <v>100000</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="E12" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B10:E10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB913478-0A68-44B0-BA8C-7966268422B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -206,9 +213,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -617,117 +623,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="1.5" customWidth="1"/>
+    <col min="1" max="1" width="43.625" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="4" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="B3" s="7">
         <v>30000</v>
       </c>
-      <c r="D6" s="8">
+      <c r="C3" s="7">
         <v>1E-4</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B4" s="3">
         <v>22500</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C4" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
-        <f>C6-C7</f>
+      <c r="B5" s="9">
+        <f>B3-B4</f>
         <v>7500</v>
       </c>
-      <c r="D8" s="10">
-        <f>D6-D7</f>
+      <c r="C5" s="9">
+        <f>C3-C4</f>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="D5" s="8"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="B9" s="9">
         <v>100000</v>
       </c>
-      <c r="D12" s="10">
+      <c r="C9" s="9">
         <v>100000</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB913478-0A68-44B0-BA8C-7966268422B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860E9B6-38C3-4912-A52B-EA98CCB655CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -149,28 +149,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -213,39 +191,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -624,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,106 +607,101 @@
     <col min="1" max="1" width="43.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>30000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>1E-4</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>22500</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <f>B3-B4</f>
         <v>7500</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <f>C3-C4</f>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>100000</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>100000</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860E9B6-38C3-4912-A52B-EA98CCB655CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -100,12 +99,14 @@
       <sz val="13"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -194,30 +195,30 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -595,59 +596,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="2.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6">
         <v>30000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8">
         <v>22500</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -655,56 +661,61 @@
         <f>B3-B4</f>
         <v>7500</v>
       </c>
-      <c r="C5" s="6">
-        <f>C3-C4</f>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <f>D3-D4</f>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
         <v>100000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73094B09-206A-4BD2-8C9F-FCCA6BA40661}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -192,9 +193,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -611,104 +611,98 @@
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>30000</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>22500</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>B3-B4</f>
         <v>7500</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <f>D3-D4</f>
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>100000</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73094B09-206A-4BD2-8C9F-FCCA6BA40661}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59793A30-3799-41FC-B090-BBB8DED8AAA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,24 +201,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -600,7 +608,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,15 +620,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,59 +638,59 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>30000</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <v>1E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>22500</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <f>B3-B4</f>
         <v>7500</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
         <f>D3-D4</f>
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -692,14 +700,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>100000</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
         <v>100000</v>
       </c>
     </row>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59793A30-3799-41FC-B090-BBB8DED8AAA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95504ACC-6FCE-449B-93D0-C3C06E3E7528}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,22 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
     <t>Example of Temporary Accounts</t>
   </si>
   <si>
     <t>Example of Permanent Account</t>
-  </si>
-  <si>
-    <t>Cash</t>
   </si>
   <si>
     <t>As of July 31st</t>
@@ -56,15 +44,27 @@
   <si>
     <t>As of August 1st</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Net Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cash</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,15 +97,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,32 +194,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -608,7 +601,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,94 +613,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10">
         <v>30000</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>1E-4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
         <v>22500</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
         <f>B3-B4</f>
         <v>7500</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
         <f>D3-D4</f>
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>100000</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>100000</v>
       </c>
     </row>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Temporary and Permanent Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95504ACC-6FCE-449B-93D0-C3C06E3E7528}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E864C7-632E-46AB-BA01-C2DC3257DDC4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -209,16 +209,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,19 +606,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.625" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="2.625" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -634,11 +634,11 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>30000</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
         <v>1E-4</v>
       </c>
     </row>
@@ -646,11 +646,11 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>22500</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -658,12 +658,12 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <f>B3-B4</f>
         <v>7500</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
         <f>D3-D4</f>
         <v>9.0000000000000006E-5</v>
       </c>
@@ -675,12 +675,12 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -696,11 +696,11 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>100000</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <v>100000</v>
       </c>
     </row>
